--- a/biology/Zoologie/Bolitoglossa_dunni/Bolitoglossa_dunni.xlsx
+++ b/biology/Zoologie/Bolitoglossa_dunni/Bolitoglossa_dunni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa dunni est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa dunni est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans l'Est du Guatemala, dans la Sierra de Caral ;
 dans l'Ouest du Honduras, dans les parcs nationaux du Cerro Azul et El Cusuco et dans la Sierra del Merendón, dans le département de Cortés.
-Elle est présente entre 1 200 et 1 600 m d'altitude[2].
+Elle est présente entre 1 200 et 1 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 111 mm dont 53 pour la queue[3]. Son dos est roux clair. Son ventre est de même tonalité mais en plus clair.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 111 mm dont 53 pour la queue. Son dos est roux clair. Son ventre est de même tonalité mais en plus clair.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, dunni, lui a été donné en l'honneur d'Emmett Reid Dunn, herpétologiste américain, pour sa contribution à la connaissance de ce genre de salamandres.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt, 1933 : New reptiles and amphibians from Honduras. Zoological Series of Field Museum of Natural History, vol. 20, no 4, p. 15-22 (texte intégral).</t>
         </is>
